--- a/test/SampleDummy.xlsx
+++ b/test/SampleDummy.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="49">
   <si>
     <t>required</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -467,6 +467,22 @@
         <charset val="134"/>
       </rPr>
       <t>FOUR has same structure with SAMPLEONE but different ID</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>loat</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -571,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -585,6 +601,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -931,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1022,8 +1039,8 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
+      <c r="I2" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="J2" s="1">
         <v>3</v>
@@ -1034,8 +1051,8 @@
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
+      <c r="M2" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="N2" s="1">
         <v>3</v>
@@ -1046,8 +1063,8 @@
       <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>23</v>
+      <c r="Q2" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
